--- a/biology/Microbiologie/Catenulisporales/Catenulisporales.xlsx
+++ b/biology/Microbiologie/Catenulisporales/Catenulisporales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Catenulisporales forment un ordre de bactéries gram positives de la classe des Actinomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre comprend des bactéries gram positives. Elles peuvent être de formes bacillaires ou sporulées non mobiles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre comprend des bactéries gram positives. Elles peuvent être de formes bacillaires ou sporulées non mobiles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (29 octobre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (29 octobre 2023) :
 Actinospicaceae Cavaletti et al. 2006
 Catenulisporaceae Busti et al. 2006</t>
         </is>
@@ -574,12 +590,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Catenulisporales Donadio et al. 2015[2].
-Le genre type est : Catenulispora Busti et al. 2006[2].
-Étymologie
-L'étymologie de cet ordre est la suivante : Ca.te.nu.li.spo.ra’les. N.L. fem. n. Catenulispora, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Catenulisporales, l'ordre des Catenulispora[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Catenulisporales Donadio et al. 2015.
+Le genre type est : Catenulispora Busti et al. 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catenulisporales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catenulisporales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : Ca.te.nu.li.spo.ra’les. N.L. fem. n. Catenulispora, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Catenulisporales, l'ordre des Catenulispora,.
 </t>
         </is>
       </c>
